--- a/Server/public/sessions/003653/attendees.xlsx
+++ b/Server/public/sessions/003653/attendees.xlsx
@@ -601,7 +601,7 @@
         <v>21BCS094</v>
       </c>
       <c r="C17" t="str">
-        <v>A</v>
+        <v>P</v>
       </c>
     </row>
     <row r="18">

--- a/Server/public/sessions/003653/attendees.xlsx
+++ b/Server/public/sessions/003653/attendees.xlsx
@@ -590,7 +590,7 @@
         <v>21BCS093</v>
       </c>
       <c r="C16" t="str">
-        <v>A</v>
+        <v>P</v>
       </c>
     </row>
     <row r="17">
